--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_42.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_42.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_0</t>
+          <t>model_1_42_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997849616077285</v>
+        <v>0.9495410023377673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8243122152506275</v>
+        <v>0.7475904206740287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.813110126283298</v>
+        <v>0.77362739528193</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997774411014163</v>
+        <v>0.9318744256059062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0008951030486744124</v>
+        <v>0.1768845502553056</v>
       </c>
       <c r="G2" t="n">
-        <v>1.174825025586918</v>
+        <v>1.687864019192014</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6684942417871388</v>
+        <v>0.8097216812387511</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001275914806575649</v>
+        <v>0.1208575971681719</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08930094991132374</v>
+        <v>1.279507396756404</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02991827282238085</v>
+        <v>0.4205764499532821</v>
       </c>
       <c r="L2" t="n">
-        <v>1.013762457105379</v>
+        <v>0.9312898755237682</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03038945571203275</v>
+        <v>0.4272001086178386</v>
       </c>
       <c r="N2" t="n">
-        <v>144.0371434162672</v>
+        <v>37.46451603533198</v>
       </c>
       <c r="O2" t="n">
-        <v>285.3723159594836</v>
+        <v>74.4290996235578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_1</t>
+          <t>model_1_42_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997866069331982</v>
+        <v>0.9496895373372187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.824018395975193</v>
+        <v>0.7475882927175168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8132869750031373</v>
+        <v>0.7721673929375075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997615357330728</v>
+        <v>0.9284441102457754</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008882543374814326</v>
+        <v>0.1763638592429511</v>
       </c>
       <c r="G3" t="n">
-        <v>1.176789796434662</v>
+        <v>1.687878248847007</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6678616641705515</v>
+        <v>0.8149440249689509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001367099185644085</v>
+        <v>0.1269431190245631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08734728476369813</v>
+        <v>1.287123704213525</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02980359604949431</v>
+        <v>0.4199569730852806</v>
       </c>
       <c r="L3" t="n">
-        <v>1.013657156275315</v>
+        <v>0.9314921359485532</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03027297289460796</v>
+        <v>0.4265708756084157</v>
       </c>
       <c r="N3" t="n">
-        <v>144.0525048797973</v>
+        <v>37.47041207195048</v>
       </c>
       <c r="O3" t="n">
-        <v>285.3876774230137</v>
+        <v>74.4349956601763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_2</t>
+          <t>model_1_42_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997876922576869</v>
+        <v>0.9496776064636344</v>
       </c>
       <c r="C4" t="n">
-        <v>0.823955258832906</v>
+        <v>0.7475711777021005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8132405360952493</v>
+        <v>0.7722992718537961</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997582548388727</v>
+        <v>0.9287115004604763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0008837366453222394</v>
+        <v>0.1764056830465521</v>
       </c>
       <c r="G4" t="n">
-        <v>1.177211994795854</v>
+        <v>1.687992697033904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6680277734513844</v>
+        <v>0.8144723017321653</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001385908325675407</v>
+        <v>0.1264687576831367</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0873087944280459</v>
+        <v>1.286475649460868</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02972770837656746</v>
+        <v>0.4200067654771195</v>
       </c>
       <c r="L4" t="n">
-        <v>1.013587695508036</v>
+        <v>0.9314758896526085</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03019589006669237</v>
+        <v>0.426621452180652</v>
       </c>
       <c r="N4" t="n">
-        <v>144.0627029044856</v>
+        <v>37.46993783822241</v>
       </c>
       <c r="O4" t="n">
-        <v>285.3978754477019</v>
+        <v>74.43452142644824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_9</t>
+          <t>model_1_42_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998151229039586</v>
+        <v>0.9495215989935379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8232416499588212</v>
+        <v>0.7475687391103709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8142688275810323</v>
+        <v>0.7737615929953265</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996903201659276</v>
+        <v>0.9321647784100254</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007695558479053155</v>
+        <v>0.1769525688838251</v>
       </c>
       <c r="G5" t="n">
-        <v>1.181983900622726</v>
+        <v>1.688009003908029</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6643496344305049</v>
+        <v>0.8092416637991622</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001775373117432361</v>
+        <v>0.1203424992398388</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07183243228452572</v>
+        <v>1.278848040807555</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0277408696313817</v>
+        <v>0.4206573057535374</v>
       </c>
       <c r="L5" t="n">
-        <v>1.011832134146651</v>
+        <v>0.9312634539486474</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02817776059738002</v>
+        <v>0.4272822378161218</v>
       </c>
       <c r="N5" t="n">
-        <v>144.3393940608878</v>
+        <v>37.4637471094542</v>
       </c>
       <c r="O5" t="n">
-        <v>285.6745666041042</v>
+        <v>74.42833069768001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_8</t>
+          <t>model_1_42_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999813686147072</v>
+        <v>0.9496672201790827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8232402316172567</v>
+        <v>0.7475676650738241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8142813223867873</v>
+        <v>0.7724226162640828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996908332891707</v>
+        <v>0.928986414963032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007755363868024365</v>
+        <v>0.1764420922769544</v>
       </c>
       <c r="G6" t="n">
-        <v>1.181993385079299</v>
+        <v>1.688016185995363</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6643049412348092</v>
+        <v>0.8140311059284896</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001772431417290645</v>
+        <v>0.1259810479426893</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07245260211064559</v>
+        <v>1.285816667410384</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02784845393917652</v>
+        <v>0.4200501068645912</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011924086587392</v>
+        <v>0.931461746626836</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02828703925047776</v>
+        <v>0.4266654761516507</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3239113120137</v>
+        <v>37.46952509104839</v>
       </c>
       <c r="O6" t="n">
-        <v>285.6590838552301</v>
+        <v>74.43410867927422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_5</t>
+          <t>model_1_42_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997986167786203</v>
+        <v>0.9494464299546375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8230751754059571</v>
+        <v>0.7475432804494158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8132147668222611</v>
+        <v>0.7742635572478049</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997263850445024</v>
+        <v>0.9333737479901153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008382630352874444</v>
+        <v>0.1772160747451196</v>
       </c>
       <c r="G7" t="n">
-        <v>1.183097116724273</v>
+        <v>1.688179246091062</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6681199486466745</v>
+        <v>0.8074461667736067</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001568615657435269</v>
+        <v>0.1181977370151001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07720845822530614</v>
+        <v>1.276129619290405</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02895277249742146</v>
+        <v>0.4209703965187096</v>
       </c>
       <c r="L7" t="n">
-        <v>1.012888526168304</v>
+        <v>0.9311610961084424</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02940874972210149</v>
+        <v>0.4276002594478695</v>
       </c>
       <c r="N7" t="n">
-        <v>144.1683572442849</v>
+        <v>37.46077105931925</v>
       </c>
       <c r="O7" t="n">
-        <v>285.5035297875012</v>
+        <v>74.42535464754508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_4</t>
+          <t>model_1_42_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997959763722314</v>
+        <v>0.9494230830156792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.823067618172733</v>
+        <v>0.7475191126582527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8131991355452307</v>
+        <v>0.7743994020446456</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997237918300926</v>
+        <v>0.9336734333771837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008492537973714708</v>
+        <v>0.1772979176866918</v>
       </c>
       <c r="G8" t="n">
-        <v>1.183147651977641</v>
+        <v>1.688340856221852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6681758608182591</v>
+        <v>0.8069602578120415</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001583482376685819</v>
+        <v>0.1176660826971788</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07763538411147949</v>
+        <v>1.275412928262353</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0291419593948566</v>
+        <v>0.4210675927766133</v>
       </c>
       <c r="L8" t="n">
-        <v>1.013057512177191</v>
+        <v>0.9311293045319887</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02960091612405372</v>
+        <v>0.4276989864496745</v>
       </c>
       <c r="N8" t="n">
-        <v>144.1423049589847</v>
+        <v>37.4598476210937</v>
       </c>
       <c r="O8" t="n">
-        <v>285.4774775022011</v>
+        <v>74.42443120931952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_7</t>
+          <t>model_1_42_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998125888786061</v>
+        <v>0.9496117324610799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8230454824856686</v>
+        <v>0.7474928967609975</v>
       </c>
       <c r="D9" t="n">
-        <v>0.814131056756361</v>
+        <v>0.7729547729264745</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997023852316076</v>
+        <v>0.9300826108449728</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007801037960855012</v>
+        <v>0.1766366050595767</v>
       </c>
       <c r="G9" t="n">
-        <v>1.183295673418966</v>
+        <v>1.688516162047511</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6648424326819425</v>
+        <v>0.8121276124033304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001706204928510839</v>
+        <v>0.1240363509402009</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07276737646947549</v>
+        <v>1.283180107884086</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02793033827373921</v>
+        <v>0.4202815783014724</v>
       </c>
       <c r="L9" t="n">
-        <v>1.011994311769207</v>
+        <v>0.9313861888831726</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0283702131814555</v>
+        <v>0.4269005930322764</v>
       </c>
       <c r="N9" t="n">
-        <v>144.3121671504589</v>
+        <v>37.46732147124614</v>
       </c>
       <c r="O9" t="n">
-        <v>285.6473396936752</v>
+        <v>74.43190505947197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_3</t>
+          <t>model_1_42_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997938284717218</v>
+        <v>0.949596078328552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8229666269223969</v>
+        <v>0.7474725714810977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8131075967216371</v>
+        <v>0.7730887116380566</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997225465135609</v>
+        <v>0.9303616862985413</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008581944905846833</v>
+        <v>0.1766914807868033</v>
       </c>
       <c r="G10" t="n">
-        <v>1.183822980933661</v>
+        <v>1.68865207728779</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6685032898825274</v>
+        <v>0.8116485213982141</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001590621690422318</v>
+        <v>0.1235412594999173</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07916227186921708</v>
+        <v>1.282567626166708</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02929495674317822</v>
+        <v>0.4203468577101573</v>
       </c>
       <c r="L10" t="n">
-        <v>1.013194977809803</v>
+        <v>0.9313648726176027</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02975632302767017</v>
+        <v>0.4269669005263927</v>
       </c>
       <c r="N10" t="n">
-        <v>144.121359610322</v>
+        <v>37.46670022736698</v>
       </c>
       <c r="O10" t="n">
-        <v>285.4565321535384</v>
+        <v>74.43128381559279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_6</t>
+          <t>model_1_42_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998020447438744</v>
+        <v>0.949562925028447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8227851195642792</v>
+        <v>0.7474303609663149</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8140159310114772</v>
+        <v>0.773357938565635</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999710087329315</v>
+        <v>0.9309236137210898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0008239940384013499</v>
+        <v>0.176807700031145</v>
       </c>
       <c r="G11" t="n">
-        <v>1.185036721473158</v>
+        <v>1.688934339194504</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6652542307960178</v>
+        <v>0.8106855122889406</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001662049333883266</v>
+        <v>0.1225443769242309</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0745346832433718</v>
+        <v>1.281317156015216</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02870529634756189</v>
+        <v>0.4204850770611782</v>
       </c>
       <c r="L11" t="n">
-        <v>1.012669136392041</v>
+        <v>0.9313197276983107</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02915737607026702</v>
+        <v>0.4271072966940234</v>
       </c>
       <c r="N11" t="n">
-        <v>144.2026945260616</v>
+        <v>37.46538515502921</v>
       </c>
       <c r="O11" t="n">
-        <v>285.537867069278</v>
+        <v>74.42996874325503</v>
       </c>
     </row>
   </sheetData>
